--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/10/seed2/result_data_KNN.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.84</v>
+        <v>-21.735</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.093999999999999</v>
+        <v>-7.827</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.47</v>
+        <v>16.441</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.68</v>
+        <v>-20.149</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.566</v>
+        <v>-20.142</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,15 +845,15 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.242</v>
+        <v>-7.527000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>16.548</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.932</v>
+        <v>-21.78900000000001</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.296</v>
+        <v>-13.147</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.772</v>
+        <v>16.394</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.004</v>
+        <v>-12.85</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.658</v>
+        <v>16.319</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.776</v>
+        <v>17.253</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.514</v>
+        <v>-12.847</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-10.792</v>
+        <v>-11.181</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.02</v>
+        <v>-11.506</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.354</v>
+        <v>-11.496</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.874</v>
+        <v>-21.794</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1369,13 +1369,13 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.484</v>
+        <v>-13.644</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.384</v>
+        <v>16.409</v>
       </c>
     </row>
     <row r="56">
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.296</v>
+        <v>-12.996</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.876</v>
+        <v>-21.942</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.476</v>
+        <v>-12.624</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.530000000000001</v>
+        <v>-8.269000000000002</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.084</v>
+        <v>-22.358</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.847999999999999</v>
+        <v>-7.708</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.328</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.718</v>
+        <v>-21.703</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.694</v>
+        <v>-7.419999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>17.522</v>
+        <v>17.612</v>
       </c>
     </row>
     <row r="71">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.176</v>
+        <v>-12.668</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.538</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.778</v>
+        <v>-20.901</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.792</v>
+        <v>-21.938</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.898</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="84">
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.254</v>
+        <v>-8.186</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.524</v>
+        <v>-11.202</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.142</v>
+        <v>-12.942</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.69</v>
+        <v>-21.481</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.82</v>
+        <v>16.454</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.744</v>
+        <v>16.948</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.931999999999999</v>
+        <v>-8.397</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.680000000000001</v>
+        <v>-8.361999999999998</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.657999999999999</v>
+        <v>-7.794000000000001</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
